--- a/project1/process/proj1.xlsx
+++ b/project1/process/proj1.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,212 +426,358 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>樹上</t>
+          <t>小明</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>樹上</t>
+          <t>買</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>pv</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>原有</t>
+          <t>賣</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>equal</t>
+          <t>nv</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>還</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>豆干</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>n</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>剩下</t>
+          <t>包</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>朵</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>int</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>豆干</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>花</t>
+          <t>包</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>朵</t>
+          <t>和</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>and</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>int</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>花</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>掉</t>
+          <t>元</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nv</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>枝</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>到</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>棉花糖</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>地上</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>共</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>total</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>枝</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>bunit</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>要</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>朵</t>
+          <t>棉花糖</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>多少</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>equal</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>比</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>豆干</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>少</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>smaller</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -829,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="BF1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG1" t="n">
         <v>0</v>
@@ -916,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="CI1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ1" t="n">
         <v>0</v>
@@ -1168,16 +1314,16 @@
         <v>0</v>
       </c>
       <c r="FO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP1" t="n">
         <v>1</v>
       </c>
-      <c r="FP1" t="n">
-        <v>0</v>
-      </c>
       <c r="FQ1" t="n">
         <v>0</v>
       </c>
       <c r="FR1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS1" t="n">
         <v>0</v>
@@ -1330,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR1" t="n">
         <v>0</v>
@@ -1501,1282 +1647,1282 @@
         <v>0</v>
       </c>
       <c r="JV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="US1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAC1" t="n">
         <v>1</v>
       </c>
-      <c r="JW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" t="n">
+      <c r="AAD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAE1" t="n">
         <v>1</v>
-      </c>
-      <c r="KX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OG1" t="n">
-        <v>1</v>
-      </c>
-      <c r="OH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ON1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ST1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="US1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAB1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AAC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAE1" t="n">
-        <v>0</v>
       </c>
       <c r="AAF1" t="n">
         <v>0</v>
@@ -3015,14 +3161,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -3180,103 +3326,103 @@
         <v>0</v>
       </c>
       <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
         <v>1</v>
       </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ2" t="n">
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -3516,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN2" t="n">
         <v>0</v>
@@ -3525,17 +3671,17 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
         <v>1</v>
       </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
       <c r="FT2" t="n">
         <v>0</v>
       </c>
@@ -3942,521 +4088,521 @@
         <v>0</v>
       </c>
       <c r="KY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ON2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RN2" t="n">
-        <v>0</v>
-      </c>
       <c r="RO2" t="n">
         <v>0</v>
       </c>
@@ -5115,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAA2" t="n">
         <v>0</v>
@@ -5124,16 +5270,16 @@
         <v>0</v>
       </c>
       <c r="AAC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAF2" t="n">
         <v>1</v>
-      </c>
-      <c r="AAD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAF2" t="n">
-        <v>0</v>
       </c>
       <c r="AAG2" t="n">
         <v>0</v>
@@ -5412,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" t="n">
         <v>0</v>
@@ -5469,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="AC1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD1" t="n">
         <v>0</v>
@@ -5646,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK1" t="n">
         <v>0</v>
@@ -5658,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="CN1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO1" t="n">
         <v>0</v>
@@ -5724,188 +5870,188 @@
         <v>0</v>
       </c>
       <c r="DJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN1" t="n">
         <v>1</v>
       </c>
-      <c r="DK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN1" t="n">
+      <c r="FO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR1" t="n">
         <v>1</v>
       </c>
-      <c r="EO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR1" t="n">
-        <v>0</v>
-      </c>
       <c r="FS1" t="n">
         <v>0</v>
       </c>
@@ -6255,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="KE1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KF1" t="n">
         <v>0</v>
@@ -6309,1202 +6455,1202 @@
         <v>0</v>
       </c>
       <c r="KW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" t="n">
         <v>1</v>
       </c>
-      <c r="KX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" t="n">
+      <c r="NJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="US1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="UZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="VZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="WZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="XY1" t="n">
         <v>1</v>
       </c>
-      <c r="ND1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OH1" t="n">
+      <c r="XZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="YZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ZZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAA1" t="n">
         <v>1</v>
       </c>
-      <c r="OI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ON1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ST1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="US1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="UZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="VZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="WZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="XZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="YZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAA1" t="n">
-        <v>0</v>
-      </c>
       <c r="AAB1" t="n">
         <v>0</v>
       </c>
       <c r="AAC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAE1" t="n">
         <v>1</v>
       </c>
-      <c r="AAD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAE1" t="n">
-        <v>0</v>
-      </c>
       <c r="AAF1" t="n">
         <v>0</v>
       </c>
@@ -7518,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AAJ1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAK1" t="n">
         <v>0</v>

--- a/project1/process/proj1.xlsx
+++ b/project1/process/proj1.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,22 +426,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>凡凡</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>place</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>現在</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>time</t>
         </is>
       </c>
     </row>
@@ -458,19 +458,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>箱</t>
+          <t>池塘裡</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>place</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,19 +480,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>飲料</t>
+          <t>共有</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>total</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -502,68 +502,68 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>賣</t>
+          <t>幾</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nv</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>青蛙</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>n</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>想</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>x</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>青蛙</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>n</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>買</t>
+          <t>跳走</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pv</t>
+          <t>nv</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -580,84 +580,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>了</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>u</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>箱</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>飲料</t>
+          <t>隻</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>bunit</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>後</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>after</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>不夠</t>
+          <t>，</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pv</t>
+          <t>x</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>又</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>u</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>元</t>
+          <t>放進</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>pv</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>隻</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>bunit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -946,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="CK1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL1" t="n">
         <v>0</v>
@@ -1354,259 +1390,259 @@
         <v>0</v>
       </c>
       <c r="HQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" t="n">
         <v>1</v>
-      </c>
-      <c r="HR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" t="n">
-        <v>0</v>
       </c>
       <c r="KX1" t="n">
         <v>0</v>
@@ -3036,346 +3072,346 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ2" t="n">
         <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -4560,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="SO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="SP2" t="n">
         <v>0</v>
@@ -5474,11 +5510,11 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>1</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
@@ -5726,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ3" t="n">
         <v>0</v>
@@ -5897,11 +5933,11 @@
         <v>0</v>
       </c>
       <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
         <v>1</v>
       </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
@@ -7496,10 +7532,10 @@
         <v>0</v>
       </c>
       <c r="AAA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAB3" t="n">
         <v>1</v>
-      </c>
-      <c r="AAB3" t="n">
-        <v>0</v>
       </c>
       <c r="AAC3" t="n">
         <v>0</v>
@@ -7940,758 +7976,758 @@
         <v>0</v>
       </c>
       <c r="BH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL1" t="n">
         <v>1</v>
       </c>
-      <c r="BI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI1" t="n">
+      <c r="CM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN1" t="n">
         <v>1</v>
       </c>
-      <c r="CJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN1" t="n">
-        <v>0</v>
-      </c>
       <c r="EO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" t="n">
         <v>1</v>
       </c>
-      <c r="EP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM1" t="n">
+      <c r="IT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" t="n">
         <v>1</v>
       </c>
-      <c r="FN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" t="n">
-        <v>0</v>
-      </c>
       <c r="KY1" t="n">
         <v>0</v>
       </c>
@@ -8861,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="NC1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND1" t="n">
         <v>0</v>
@@ -9866,19 +9902,19 @@
         <v>0</v>
       </c>
       <c r="ZZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAC1" t="n">
         <v>1</v>
       </c>
-      <c r="AAA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAC1" t="n">
-        <v>0</v>
-      </c>
       <c r="AAD1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AAE1" t="n">
         <v>0</v>

--- a/project1/process/proj1.xlsx
+++ b/project1/process/proj1.xlsx
@@ -426,7 +426,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>媽媽</t>
+          <t>小明</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -436,19 +436,19 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>請問</t>
+          <t>排在</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>v</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>煮</t>
+          <t>排隊</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -458,107 +458,107 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>還</t>
+          <t>他</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>name</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>了</t>
+          <t>排在</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>v</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>剩下</t>
+          <t>前面</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>before</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>第</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>adv</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>幾</t>
+          <t>的</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>adv</t>
+          <t>u</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>int</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>顆</t>
+          <t>第</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>bunit</t>
+          <t>adv</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>水餃</t>
+          <t>個</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>bunit</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>水餃</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>，</t>
+          <t>。</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,82 +568,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>？</t>
+          <t>個</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>弟弟</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>吃</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>了</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
         <is>
           <t>bunit</t>
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>人</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>第</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>adv</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>幾</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>adv</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>個</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>bunit</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>？</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -660,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ADD2"/>
+  <dimension ref="A1:ADD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="n">
         <v>0</v>
@@ -937,256 +937,256 @@
         <v>0</v>
       </c>
       <c r="CL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN1" t="n">
         <v>1</v>
       </c>
-      <c r="CM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK1" t="n">
+      <c r="EO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ1" t="n">
         <v>1</v>
-      </c>
-      <c r="DL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP1" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ1" t="n">
-        <v>0</v>
       </c>
       <c r="FR1" t="n">
         <v>0</v>
@@ -2782,11 +2782,11 @@
         <v>0</v>
       </c>
       <c r="AAC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAD1" t="n">
         <v>1</v>
       </c>
-      <c r="AAD1" t="n">
-        <v>0</v>
-      </c>
       <c r="AAE1" t="n">
         <v>0</v>
       </c>
@@ -3019,2360 +3019,6 @@
         <v>0</v>
       </c>
       <c r="ADD1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="II2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="NZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ON2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="OZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="PZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="RZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ST2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="SZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="TZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="US2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="UZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="VZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="WZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="XZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="YZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ZZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AAD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ABZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ACZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ADA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ADB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ADC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ADD2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5397,7 +3043,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="n">
         <v>0</v>
@@ -5664,14 +3310,14 @@
         <v>0</v>
       </c>
       <c r="CL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN1" t="n">
         <v>1</v>
       </c>
-      <c r="CM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN1" t="n">
-        <v>0</v>
-      </c>
       <c r="CO1" t="n">
         <v>0</v>
       </c>
@@ -5733,121 +3379,121 @@
         <v>0</v>
       </c>
       <c r="DI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL1" t="n">
         <v>1</v>
       </c>
-      <c r="DJ1" t="n">
+      <c r="DM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO1" t="n">
         <v>1</v>
       </c>
-      <c r="DK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN1" t="n">
+      <c r="EP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET1" t="n">
         <v>1</v>
       </c>
-      <c r="EO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET1" t="n">
-        <v>0</v>
-      </c>
       <c r="EU1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EV1" t="n">
         <v>0</v>
@@ -5916,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="FR1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS1" t="n">
         <v>0</v>
@@ -6072,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="HR1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS1" t="n">
         <v>0</v>
@@ -6261,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="KC1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KD1" t="n">
         <v>0</v>
@@ -6495,512 +4141,512 @@
         <v>0</v>
       </c>
       <c r="NC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RT1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="RZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SP1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SR1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ST1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SU1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SV1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SW1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SX1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SY1" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TK1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TL1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TM1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="TO1" t="n">
         <v>1</v>
       </c>
-      <c r="ND1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ON1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="OZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="PZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="QZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="RZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SP1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ST1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SU1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SV1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SW1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SX1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SY1" t="n">
-        <v>0</v>
-      </c>
-      <c r="SZ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TA1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TC1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TG1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TH1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TI1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TJ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TK1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TL1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TM1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TN1" t="n">
-        <v>0</v>
-      </c>
-      <c r="TO1" t="n">
-        <v>0</v>
-      </c>
       <c r="TP1" t="n">
         <v>0</v>
       </c>
@@ -7509,14 +5155,14 @@
         <v>0</v>
       </c>
       <c r="AAC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAE1" t="n">
         <v>1</v>
       </c>
-      <c r="AAD1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AAE1" t="n">
-        <v>0</v>
-      </c>
       <c r="AAF1" t="n">
         <v>0</v>
       </c>
@@ -7530,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="AAJ1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AAK1" t="n">
         <v>0</v>
